--- a/biology/Médecine/Allan_McLeod_Cormack/Allan_McLeod_Cormack.xlsx
+++ b/biology/Médecine/Allan_McLeod_Cormack/Allan_McLeod_Cormack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan MacLeod Cormack (né le 23 février 1924 et mort le 7 mai 1998) est un physicien sud-africain, devenu américain en 1966. Il obtint le prix Nobel de physiologie ou médecine en 1979 pour sa contribution à l'invention de la tomodensitométrie, connue sous le nom de « scanner ».
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allan MacLeod Cormack est né à Johannesburg, en Afrique du Sud. Il est diplômé en physique et en cristallographie de l'université du Cap. Après un séjour à l'Université de Cambridge (en Grande-Bretagne), il retourne enseigner à l'Université du Cap. Après son mariage avec une physicienne américaine et un séjour à l'université Harvard, il décide de s'installer aux États-Unis et enseigne à l'université Tufts dès 1957. Il devient citoyen américain en 1966.
-Bien que son travail principal concerne la physique des particules, il développe un intérêt dans la radiographie qui le conduit à établir les fondements théoriques de la tomodensitométrie. Ses publications sur ce sujet susciteront peu d'intérêt à l'époque jusqu'au moment où Hounsfield construira le premier scanner. Cormack et Hounsfield reçoivent chacun la moitié du prix Nobel de médecine en 1979 « pour le développement de la tomographie assistée par ordinateur[1] ».
+Bien que son travail principal concerne la physique des particules, il développe un intérêt dans la radiographie qui le conduit à établir les fondements théoriques de la tomodensitométrie. Ses publications sur ce sujet susciteront peu d'intérêt à l'époque jusqu'au moment où Hounsfield construira le premier scanner. Cormack et Hounsfield reçoivent chacun la moitié du prix Nobel de médecine en 1979 « pour le développement de la tomographie assistée par ordinateur ».
 </t>
         </is>
       </c>
